--- a/xlsx/荷馬史詩_intext.xlsx
+++ b/xlsx/荷馬史詩_intext.xlsx
@@ -29,7 +29,7 @@
     <t>海伦 (神话)</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_荷馬史詩</t>
+    <t>体育运动_体育运动_古希腊_荷馬史詩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
